--- a/cnw/saishin_250204/list.xlsx
+++ b/cnw/saishin_250204/list.xlsx
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吉田隆志\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0311B5-5D99-4862-95F2-B8B4DC510F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="135" windowWidth="19065" windowHeight="14130" xr2:uid="{57B2C9CF-8817-4E33-B34B-825060383B83}"/>
   </bookViews>
@@ -1163,4 +1162,10 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{dbb4fa5d-3ac5-4415-967c-34900a0e1c6f}" enabled="1" method="Privileged" siteId="{a629ef32-67ba-47a6-8eb3-ec43935644fc}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>